--- a/财务预算.xlsx
+++ b/财务预算.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livis/Documents/xmind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D99921-7D88-1446-A53B-6E192728A673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB703D-6186-B348-85D1-3DED64655F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{07A47855-4DE6-C342-9BD1-95789878DFF8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{07A47855-4DE6-C342-9BD1-95789878DFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
   <si>
     <t>税前工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,11 +124,182 @@
     <t>月中差值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李相聪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计归还时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201910预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201911预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201912预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投放位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活期存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达余额佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安新丝路主题股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安策略优选混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金定投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘弘择短债债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘沪深300ETF联接C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证银行指数C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏消费升级灵活配置混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证全指金融地产ETF联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投期数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -190,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +381,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F89829-ACD1-9741-AF5B-3030BB4ED207}">
-  <dimension ref="A2:P113"/>
+  <dimension ref="A2:P189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q110" sqref="Q110"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="O200" sqref="O200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -803,7 +985,7 @@
         <v>2600</v>
       </c>
       <c r="O27" s="1">
-        <f>P27/B$24</f>
+        <f t="shared" ref="O27:O36" si="1">P27/B$24</f>
         <v>0.17675050985723997</v>
       </c>
       <c r="P27" s="4">
@@ -823,7 +1005,7 @@
         <v>1100</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28:E36" si="1">F28/B$24</f>
+        <f t="shared" ref="E28:E36" si="2">F28/B$24</f>
         <v>7.9273963290278721E-2</v>
       </c>
       <c r="F28" s="2">
@@ -831,11 +1013,11 @@
         <v>1166.1199999999999</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" ref="G28:G37" si="2">F28-C28</f>
+        <f t="shared" ref="G28:G37" si="3">F28-C28</f>
         <v>66.119999999999891</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28:I37" si="3">J28/B$24</f>
+        <f t="shared" ref="I28:I36" si="4">J28/B$24</f>
         <v>7.9273963290278721E-2</v>
       </c>
       <c r="J28" s="2">
@@ -843,11 +1025,11 @@
         <v>1166.1199999999999</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K37" si="4">J28-C28</f>
+        <f t="shared" ref="K28:K37" si="5">J28-C28</f>
         <v>66.119999999999891</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28:M37" si="5">N28/B$24</f>
+        <f t="shared" ref="M28:M37" si="6">N28/B$24</f>
         <v>7.9273963290278721E-2</v>
       </c>
       <c r="N28" s="2">
@@ -855,7 +1037,7 @@
         <v>1166.1199999999999</v>
       </c>
       <c r="O28" s="1">
-        <f>P28/B$24</f>
+        <f t="shared" si="1"/>
         <v>7.477906186267845E-2</v>
       </c>
       <c r="P28" s="5">
@@ -867,43 +1049,43 @@
         <v>14</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29" si="6">C29/B$5</f>
+        <f t="shared" ref="B29" si="7">C29/B$5</f>
         <v>0.04</v>
       </c>
       <c r="C29">
         <v>600</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12007953772943575</v>
       </c>
       <c r="F29" s="2">
         <v>1766.37</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1166.3699999999999</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12007953772943575</v>
       </c>
       <c r="J29" s="2">
         <v>1766.37</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1166.3699999999999</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.12007953772943575</v>
       </c>
       <c r="N29" s="2">
         <v>1766.37</v>
       </c>
       <c r="O29" s="1">
-        <f>P29/B$24</f>
+        <f t="shared" si="1"/>
         <v>6.7980965329707682E-2</v>
       </c>
       <c r="P29" s="5">
@@ -915,43 +1097,43 @@
         <v>15</v>
       </c>
       <c r="B30" s="1">
-        <f>C30/B$24</f>
+        <f t="shared" ref="B30:B36" si="8">C30/B$24</f>
         <v>6.7980965329707682E-2</v>
       </c>
       <c r="C30">
         <v>1000</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0848402447314754E-2</v>
       </c>
       <c r="F30">
         <v>600.88</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-399.12</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0848402447314754E-2</v>
       </c>
       <c r="J30">
         <v>600.88</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-399.12</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0848402447314754E-2</v>
       </c>
       <c r="N30">
         <v>600.88</v>
       </c>
       <c r="O30" s="1">
-        <f>P30/B$24</f>
+        <f t="shared" si="1"/>
         <v>6.7980965329707682E-2</v>
       </c>
       <c r="P30" s="5">
@@ -963,43 +1145,43 @@
         <v>6</v>
       </c>
       <c r="B31" s="1">
-        <f>C31/B$24</f>
+        <f t="shared" si="8"/>
         <v>0.11556764106050306</v>
       </c>
       <c r="C31">
         <v>1700</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>-1700</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>-1700</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="2"/>
-        <v>-1700</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>-1700</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <f>P31/B$24</f>
         <v>8.9055064581917059E-2</v>
       </c>
       <c r="P31" s="5">
@@ -1011,43 +1193,43 @@
         <v>7</v>
       </c>
       <c r="B32" s="1">
-        <f>C32/B$24</f>
+        <f t="shared" si="8"/>
         <v>0.20394289598912305</v>
       </c>
       <c r="C32">
         <v>3000</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>-3000</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>-3000</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="2"/>
-        <v>-3000</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>-3000</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <f>P32/B$24</f>
         <v>0.20394289598912305</v>
       </c>
       <c r="P32" s="5">
@@ -1059,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="1">
-        <f>C33/B$24</f>
+        <f t="shared" si="8"/>
         <v>0.21821889870836167</v>
       </c>
       <c r="C33">
@@ -1067,36 +1249,36 @@
         <v>3210</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>-3210</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>-3210</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="2"/>
-        <v>-3210</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="4"/>
-        <v>-3210</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1">
-        <f>P33/B$24</f>
         <v>0.21414004078857921</v>
       </c>
       <c r="P33" s="5">
@@ -1108,43 +1290,43 @@
         <v>10</v>
       </c>
       <c r="B34" s="1">
-        <f>C34/B$24</f>
+        <f t="shared" si="8"/>
         <v>2.0394289598912305E-2</v>
       </c>
       <c r="C34">
         <v>300</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9773623385452066E-2</v>
       </c>
       <c r="F34" s="2">
         <v>1026.3699999999999</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>726.36999999999989</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9773623385452066E-2</v>
       </c>
       <c r="J34" s="2">
         <v>1026.3699999999999</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>726.36999999999989</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9773623385452066E-2</v>
       </c>
       <c r="N34" s="2">
         <v>1026.3699999999999</v>
       </c>
       <c r="O34" s="1">
-        <f>P34/B$24</f>
+        <f t="shared" si="1"/>
         <v>4.4187627464309993E-2</v>
       </c>
       <c r="P34" s="5">
@@ -1156,43 +1338,43 @@
         <v>16</v>
       </c>
       <c r="B35" s="1">
-        <f>C35/B$24</f>
+        <f t="shared" si="8"/>
         <v>1.3596193065941536E-2</v>
       </c>
       <c r="C35">
         <v>200</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>-200</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>-200</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="2"/>
-        <v>-200</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>-200</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1">
-        <f>P35/B$24</f>
         <v>0</v>
       </c>
       <c r="P35" s="5">
@@ -1205,43 +1387,43 @@
         <v>11</v>
       </c>
       <c r="B36" s="1">
-        <f>C36/B$24</f>
+        <f t="shared" si="8"/>
         <v>6.7980965329707682E-2</v>
       </c>
       <c r="C36">
         <v>1000</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57535486063902108</v>
       </c>
       <c r="F36" s="2">
         <v>8463.4699999999993</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7463.4699999999993</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57535486063902108</v>
       </c>
       <c r="J36" s="2">
         <v>8463.4699999999993</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7463.4699999999993</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57535486063902108</v>
       </c>
       <c r="N36" s="2">
         <v>8463.4699999999993</v>
       </c>
       <c r="O36" s="1">
-        <f>P36/B$24</f>
+        <f t="shared" si="1"/>
         <v>6.1182868796736914E-2</v>
       </c>
       <c r="P36" s="5">
@@ -1267,7 +1449,7 @@
         <v>15623.21</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>913.20999999999913</v>
       </c>
       <c r="I37" s="1">
@@ -1279,11 +1461,11 @@
         <v>15623.21</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>913.20999999999913</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0620808973487423</v>
       </c>
       <c r="N37">
@@ -1411,32 +1593,32 @@
         <v>5</v>
       </c>
       <c r="B47" s="1">
-        <f t="shared" ref="B47:B55" si="7">C47/B$43</f>
+        <f t="shared" ref="B47:B55" si="9">C47/B$43</f>
         <v>7.3529411764705885E-2</v>
       </c>
       <c r="C47">
         <v>1100</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ref="E47:E55" si="8">F47/B$43</f>
+        <f t="shared" ref="E47:E55" si="10">F47/B$43</f>
         <v>9.1399064171122993E-2</v>
       </c>
       <c r="F47" s="2">
         <v>1367.33</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" ref="G47:G56" si="9">F47-C47</f>
+        <f t="shared" ref="G47:G56" si="11">F47-C47</f>
         <v>267.32999999999993</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ref="I47:I55" si="10">J47/B$43</f>
+        <f t="shared" ref="I47:I55" si="12">J47/B$43</f>
         <v>9.1399064171122993E-2</v>
       </c>
       <c r="J47" s="2">
         <v>1367.33</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="K47:K56" si="11">J47-C47</f>
+        <f t="shared" ref="K47:K56" si="13">J47-C47</f>
         <v>267.32999999999993</v>
       </c>
       <c r="M47" s="1">
@@ -1446,7 +1628,7 @@
         <v>1367.33</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" ref="O47:O56" si="12">P47/B$43</f>
+        <f t="shared" ref="O47:O55" si="14">P47/B$43</f>
         <v>7.3529411764705885E-2</v>
       </c>
       <c r="P47" s="5">
@@ -1458,32 +1640,32 @@
         <v>14</v>
       </c>
       <c r="B48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.684491978609626E-2</v>
       </c>
       <c r="C48">
         <v>1000</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.0227941176470588E-2</v>
       </c>
       <c r="F48" s="2">
         <v>901.01</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-98.990000000000009</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.0227941176470588E-2</v>
       </c>
       <c r="J48" s="2">
         <v>901.01</v>
       </c>
       <c r="K48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-98.990000000000009</v>
       </c>
       <c r="M48" s="1">
@@ -1493,7 +1675,7 @@
         <v>901.01</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.0106951871657755E-2</v>
       </c>
       <c r="P48" s="5">
@@ -1505,32 +1687,32 @@
         <v>15</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.684491978609626E-2</v>
       </c>
       <c r="C49">
         <v>1000</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14498529411764707</v>
       </c>
       <c r="F49">
         <v>2168.98</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1168.98</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.14498529411764707</v>
       </c>
       <c r="J49">
         <v>2168.98</v>
       </c>
       <c r="K49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1168.98</v>
       </c>
       <c r="M49" s="1">
@@ -1540,7 +1722,7 @@
         <v>2168.98</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.684491978609626E-2</v>
       </c>
       <c r="P49" s="5">
@@ -1552,34 +1734,34 @@
         <v>6</v>
       </c>
       <c r="B50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.7566844919786099E-2</v>
       </c>
       <c r="C50">
         <v>1310</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="9"/>
-        <v>-1310</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
         <f t="shared" si="11"/>
         <v>-1310</v>
       </c>
+      <c r="I50" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="13"/>
+        <v>-1310</v>
+      </c>
       <c r="M50" s="1">
         <v>0</v>
       </c>
@@ -1587,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.3475935828877004E-2</v>
       </c>
       <c r="P50" s="5">
@@ -1599,32 +1781,32 @@
         <v>7</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20053475935828877</v>
       </c>
       <c r="C51">
         <v>3000</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20053475935828877</v>
       </c>
       <c r="F51">
         <v>3000</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.20053475935828877</v>
       </c>
       <c r="J51">
         <v>3000</v>
       </c>
       <c r="K51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M51" s="1">
@@ -1646,32 +1828,32 @@
         <v>8</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.21056149732620322</v>
       </c>
       <c r="C52">
         <v>3150</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.21390374331550802</v>
       </c>
       <c r="F52">
         <v>3200</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.21390374331550802</v>
       </c>
       <c r="J52">
         <v>3200</v>
       </c>
       <c r="K52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="M52" s="1">
@@ -1681,7 +1863,7 @@
         <v>3200</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.26737967914438504</v>
       </c>
       <c r="P52" s="5">
@@ -1693,32 +1875,32 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3449197860962567E-2</v>
       </c>
       <c r="C53">
         <v>650</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5449197860962564E-2</v>
       </c>
       <c r="F53" s="2">
         <v>829.52</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>179.51999999999998</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.5449197860962564E-2</v>
       </c>
       <c r="J53" s="2">
         <v>829.52</v>
       </c>
       <c r="K53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>179.51999999999998</v>
       </c>
       <c r="M53" s="1">
@@ -1728,7 +1910,7 @@
         <v>829.52</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4.3449197860962567E-2</v>
       </c>
       <c r="P53" s="5">
@@ -1740,32 +1922,32 @@
         <v>16</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.0160427807486629E-2</v>
       </c>
       <c r="C54">
         <v>900</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.1941844919786097E-2</v>
       </c>
       <c r="F54">
         <v>926.65</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26.649999999999977</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.1941844919786097E-2</v>
       </c>
       <c r="J54">
         <v>926.65</v>
       </c>
       <c r="K54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26.649999999999977</v>
       </c>
       <c r="M54" s="1">
@@ -1775,7 +1957,7 @@
         <v>926.65</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0160427807486629E-2</v>
       </c>
       <c r="P54" s="5">
@@ -1787,32 +1969,32 @@
         <v>11</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M55" s="1">
@@ -1822,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3368983957219251E-2</v>
       </c>
       <c r="P55" s="5">
@@ -1847,7 +2029,7 @@
         <v>14993.49</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>283.48999999999978</v>
       </c>
       <c r="I56" s="1">
@@ -1859,7 +2041,7 @@
         <v>14993.49</v>
       </c>
       <c r="K56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>283.48999999999978</v>
       </c>
       <c r="M56" s="1">
@@ -1966,14 +2148,14 @@
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f>N65/B$62</f>
+        <f t="shared" ref="M65:M74" si="15">N65/B$62</f>
         <v>0.17594911010353928</v>
       </c>
       <c r="N65">
         <v>2600</v>
       </c>
       <c r="O65" s="1">
-        <f>P65/B$62</f>
+        <f t="shared" ref="O65:O74" si="16">P65/B$62</f>
         <v>0.17594911010353928</v>
       </c>
       <c r="P65" s="4">
@@ -1986,43 +2168,43 @@
         <v>5</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" ref="B66:B74" si="13">C66/B$62</f>
+        <f t="shared" ref="B66:B74" si="17">C66/B$62</f>
         <v>7.4440008120728166E-2</v>
       </c>
       <c r="C66">
         <v>1100</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E74" si="14">F66/B$62</f>
+        <f t="shared" ref="E66:E74" si="18">F66/B$62</f>
         <v>9.6197469039723899E-2</v>
       </c>
       <c r="F66" s="2">
         <v>1421.51</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G75" si="15">F66-C66</f>
+        <f t="shared" ref="G66:G75" si="19">F66-C66</f>
         <v>321.51</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" ref="I66:I74" si="16">J66/B$62</f>
+        <f t="shared" ref="I66:I74" si="20">J66/B$62</f>
         <v>9.6197469039723899E-2</v>
       </c>
       <c r="J66" s="2">
         <v>1421.51</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K74" si="17">J66-C66</f>
+        <f t="shared" ref="K66:K74" si="21">J66-C66</f>
         <v>321.51</v>
       </c>
       <c r="M66" s="1">
-        <f>N66/B$62</f>
+        <f t="shared" si="15"/>
         <v>9.6197469039723899E-2</v>
       </c>
       <c r="N66" s="2">
         <v>1421.51</v>
       </c>
       <c r="O66" s="1">
-        <f>P66/B$62</f>
+        <f t="shared" si="16"/>
         <v>7.4440008120728166E-2</v>
       </c>
       <c r="P66" s="5">
@@ -2034,43 +2216,43 @@
         <v>14</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.0603640793124451E-2</v>
       </c>
       <c r="C67">
         <v>600</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7.579887663260472E-2</v>
       </c>
       <c r="F67" s="2">
         <v>1120.08</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>520.07999999999993</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7.579887663260472E-2</v>
       </c>
       <c r="J67" s="2">
         <v>1120.08</v>
       </c>
       <c r="K67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>520.07999999999993</v>
       </c>
       <c r="M67" s="1">
-        <f>N67/B$62</f>
+        <f t="shared" si="15"/>
         <v>7.579887663260472E-2</v>
       </c>
       <c r="N67" s="2">
         <v>1120.08</v>
       </c>
       <c r="O67" s="1">
-        <f>P67/B$62</f>
+        <f t="shared" si="16"/>
         <v>4.7370914258645189E-2</v>
       </c>
       <c r="P67" s="5">
@@ -2082,43 +2264,43 @@
         <v>15</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.7672734655207414E-2</v>
       </c>
       <c r="C68">
         <v>1000</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.19535765040265279</v>
       </c>
       <c r="F68">
         <v>2886.8</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1886.8000000000002</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.19535765040265279</v>
       </c>
       <c r="J68">
         <v>2886.8</v>
       </c>
       <c r="K68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1886.8000000000002</v>
       </c>
       <c r="M68" s="1">
-        <f>N68/B$62</f>
+        <f t="shared" si="15"/>
         <v>0.19535765040265279</v>
       </c>
       <c r="N68">
         <v>2886.8</v>
       </c>
       <c r="O68" s="1">
-        <f>P68/B$62</f>
+        <f t="shared" si="16"/>
         <v>6.7672734655207414E-2</v>
       </c>
       <c r="P68" s="5">
@@ -2130,43 +2312,43 @@
         <v>6</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.4138187724165933E-2</v>
       </c>
       <c r="C69">
         <v>800</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="3">
+        <f t="shared" si="19"/>
+        <v>-800</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="21"/>
+        <v>-800</v>
+      </c>
+      <c r="M69" s="1">
         <f t="shared" si="15"/>
-        <v>-800</v>
-      </c>
-      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="17"/>
-        <v>-800</v>
-      </c>
-      <c r="M69" s="1">
-        <f>N69/B$62</f>
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69" s="1">
-        <f>P69/B$62</f>
         <v>4.0603640793124451E-2</v>
       </c>
       <c r="P69" s="5">
@@ -2178,14 +2360,14 @@
         <v>7</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.20301820396562226</v>
       </c>
       <c r="C70">
         <v>3000</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.20301820396562226</v>
       </c>
       <c r="F70">
@@ -2196,25 +2378,25 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.20301820396562226</v>
       </c>
       <c r="J70">
         <v>3000</v>
       </c>
       <c r="K70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M70" s="1">
-        <f>N70/B$62</f>
+        <f t="shared" si="15"/>
         <v>0.20301820396562226</v>
       </c>
       <c r="N70">
         <v>3000</v>
       </c>
       <c r="O70" s="1">
-        <f>P70/B$62</f>
+        <f t="shared" si="16"/>
         <v>0.20301820396562226</v>
       </c>
       <c r="P70" s="5">
@@ -2226,14 +2408,14 @@
         <v>8</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.27069093862082966</v>
       </c>
       <c r="C71">
         <v>4000</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.27069093862082966</v>
       </c>
       <c r="F71">
@@ -2244,25 +2426,25 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.27069093862082966</v>
       </c>
       <c r="J71">
         <v>4000</v>
       </c>
       <c r="K71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <f>N71/B$62</f>
+        <f t="shared" si="15"/>
         <v>0.20301820396562226</v>
       </c>
       <c r="N71">
         <v>3000</v>
       </c>
       <c r="O71" s="1">
-        <f>P71/B$62</f>
+        <f t="shared" si="16"/>
         <v>0.27069093862082966</v>
       </c>
       <c r="P71" s="5">
@@ -2274,43 +2456,43 @@
         <v>10</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.398727752588482E-2</v>
       </c>
       <c r="C72">
         <v>650</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.0261216755769099E-2</v>
       </c>
       <c r="F72" s="2">
         <v>299.39999999999998</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-350.6</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2.0261216755769099E-2</v>
       </c>
       <c r="J72" s="2">
         <v>299.39999999999998</v>
       </c>
       <c r="K72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-350.6</v>
       </c>
       <c r="M72" s="1">
-        <f>N72/B$62</f>
+        <f t="shared" si="15"/>
         <v>2.0261216755769099E-2</v>
       </c>
       <c r="N72" s="2">
         <v>299.39999999999998</v>
       </c>
       <c r="O72" s="1">
-        <f>P72/B$62</f>
+        <f t="shared" si="16"/>
         <v>4.398727752588482E-2</v>
       </c>
       <c r="P72" s="5">
@@ -2322,43 +2504,43 @@
         <v>16</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.0905461189686677E-2</v>
       </c>
       <c r="C73">
         <v>900</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.4479935034174729E-2</v>
       </c>
       <c r="F73">
         <v>509.51</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-390.49</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3.4479935034174729E-2</v>
       </c>
       <c r="J73">
         <v>509.51</v>
       </c>
       <c r="K73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-390.49</v>
       </c>
       <c r="M73" s="1">
-        <f>N73/B$62</f>
+        <f t="shared" si="15"/>
         <v>3.4479935034174729E-2</v>
       </c>
       <c r="N73">
         <v>509.51</v>
       </c>
       <c r="O73" s="1">
-        <f>P73/B$62</f>
+        <f t="shared" si="16"/>
         <v>6.7672734655207414E-2</v>
       </c>
       <c r="P73" s="5">
@@ -2370,43 +2552,43 @@
         <v>11</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.14031941530757258</v>
       </c>
       <c r="F74" s="2">
         <v>2073.5</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2073.5</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.14031941530757258</v>
       </c>
       <c r="J74" s="2">
         <v>2073.5</v>
       </c>
       <c r="K74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2073.5</v>
       </c>
       <c r="M74" s="1">
-        <f>N74/B$62</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
       </c>
       <c r="O74" s="1">
-        <f>P74/B$62</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P74" s="5">
@@ -2432,7 +2614,7 @@
         <v>17910.8</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3260.7999999999993</v>
       </c>
       <c r="I75" s="1">
@@ -2485,7 +2667,7 @@
         <v>14177</v>
       </c>
       <c r="M81" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -2558,7 +2740,7 @@
         <v>2600</v>
       </c>
       <c r="O84" s="1">
-        <f>P84/B$81</f>
+        <f t="shared" ref="O84:O93" si="22">P84/B$81</f>
         <v>0.18339564082669113</v>
       </c>
       <c r="P84" s="4">
@@ -2571,43 +2753,43 @@
         <v>5</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" ref="B85:B93" si="18">C85/B$81</f>
+        <f t="shared" ref="B85:B93" si="23">C85/B$81</f>
         <v>7.7590463426677012E-2</v>
       </c>
       <c r="C85">
         <v>1100</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ref="E85:E92" si="19">F85/B$81</f>
+        <f t="shared" ref="E85:E92" si="24">F85/B$81</f>
         <v>8.8431261903082467E-2</v>
       </c>
       <c r="F85" s="2">
         <v>1253.69</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" ref="G85:G94" si="20">F85-C85</f>
+        <f t="shared" ref="G85:G94" si="25">F85-C85</f>
         <v>153.69000000000005</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" ref="I85:I93" si="21">J85/B$81</f>
+        <f t="shared" ref="I85:I93" si="26">J85/B$81</f>
         <v>8.8431261903082467E-2</v>
       </c>
       <c r="J85" s="2">
         <v>1253.69</v>
       </c>
       <c r="K85">
-        <f t="shared" ref="K85:K94" si="22">J85-C85</f>
+        <f t="shared" ref="K85:K94" si="27">J85-C85</f>
         <v>153.69000000000005</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" ref="M85:M93" si="23">N85/B$81</f>
+        <f t="shared" ref="M85:M93" si="28">N85/B$81</f>
         <v>8.8431261903082467E-2</v>
       </c>
       <c r="N85" s="2">
         <v>1253.69</v>
       </c>
       <c r="O85" s="1">
-        <f>P85/B$81</f>
+        <f t="shared" si="22"/>
         <v>7.7590463426677012E-2</v>
       </c>
       <c r="P85" s="5">
@@ -2619,43 +2801,43 @@
         <v>14</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>4.9375749453339918E-2</v>
       </c>
       <c r="C86">
         <v>700</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>6.0160823869648022E-2</v>
       </c>
       <c r="F86" s="2">
         <v>852.9</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>152.89999999999998</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6.0160823869648022E-2</v>
       </c>
       <c r="J86" s="2">
         <v>852.9</v>
       </c>
       <c r="K86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>152.89999999999998</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6.0160823869648022E-2</v>
       </c>
       <c r="N86" s="2">
         <v>852.9</v>
       </c>
       <c r="O86" s="1">
-        <f>P86/B$81</f>
+        <f t="shared" si="22"/>
         <v>6.3483106440008458E-2</v>
       </c>
       <c r="P86" s="5">
@@ -2667,43 +2849,43 @@
         <v>15</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>7.0536784933342742E-2</v>
       </c>
       <c r="C87">
         <v>1000</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.11539818015094871</v>
       </c>
       <c r="F87">
         <v>1636</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>636</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.11539818015094871</v>
       </c>
       <c r="J87">
         <v>1636</v>
       </c>
       <c r="K87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>636</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.11539818015094871</v>
       </c>
       <c r="N87">
         <v>1636</v>
       </c>
       <c r="O87" s="1">
-        <f>P87/B$81</f>
+        <f t="shared" si="22"/>
         <v>3.5268392466671371E-2</v>
       </c>
       <c r="P87" s="5">
@@ -2715,43 +2897,43 @@
         <v>6</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>4.2322070960005641E-2</v>
       </c>
       <c r="C88">
         <v>600</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>8.6054877618678138E-2</v>
       </c>
       <c r="F88">
         <v>1220</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>620</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>8.6054877618678138E-2</v>
       </c>
       <c r="J88">
         <v>1220</v>
       </c>
       <c r="K88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>620</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.6054877618678138E-2</v>
       </c>
       <c r="N88">
         <v>1220</v>
       </c>
       <c r="O88" s="1">
-        <f>P88/B$81</f>
+        <f t="shared" si="22"/>
         <v>4.2322070960005641E-2</v>
       </c>
       <c r="P88" s="5">
@@ -2763,43 +2945,43 @@
         <v>7</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.21161035480002821</v>
       </c>
       <c r="C89">
         <v>3000</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.21161035480002821</v>
       </c>
       <c r="F89">
         <v>3000</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.21161035480002821</v>
       </c>
       <c r="J89">
         <v>3000</v>
       </c>
       <c r="K89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.16928828384002256</v>
       </c>
       <c r="N89">
         <v>2400</v>
       </c>
       <c r="O89" s="1">
-        <f>P89/B$81</f>
+        <f t="shared" si="22"/>
         <v>0.21161035480002821</v>
       </c>
       <c r="P89" s="5">
@@ -2811,43 +2993,43 @@
         <v>8</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.28214713973337097</v>
       </c>
       <c r="C90">
         <v>4000</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.28214713973337097</v>
       </c>
       <c r="F90">
         <v>4000</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.28214713973337097</v>
       </c>
       <c r="J90">
         <v>4000</v>
       </c>
       <c r="K90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.17634196233335683</v>
       </c>
       <c r="N90">
         <v>2500</v>
       </c>
       <c r="O90" s="1">
-        <f>P90/B$81</f>
+        <f t="shared" si="22"/>
         <v>0.28214713973337097</v>
       </c>
       <c r="P90" s="5">
@@ -2859,43 +3041,43 @@
         <v>10</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>4.5848910206672783E-2</v>
       </c>
       <c r="C91">
         <v>650</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>7.6827255413698253E-2</v>
       </c>
       <c r="F91" s="2">
         <v>1089.18</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>439.18000000000006</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>7.6827255413698253E-2</v>
       </c>
       <c r="J91" s="2">
         <v>1089.18</v>
       </c>
       <c r="K91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>439.18000000000006</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.6827255413698253E-2</v>
       </c>
       <c r="N91" s="2">
         <v>1089.18</v>
       </c>
       <c r="O91" s="1">
-        <f>P91/B$81</f>
+        <f t="shared" si="22"/>
         <v>4.5848910206672783E-2</v>
       </c>
       <c r="P91" s="5">
@@ -2907,43 +3089,43 @@
         <v>16</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>7.0536784933342742E-2</v>
       </c>
       <c r="C92">
         <v>1000</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.1290823164280172E-2</v>
       </c>
       <c r="F92">
         <v>727.15</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-272.85000000000002</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5.1290823164280172E-2</v>
       </c>
       <c r="J92">
         <v>727.15</v>
       </c>
       <c r="K92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-272.85000000000002</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5.1290823164280172E-2</v>
       </c>
       <c r="N92">
         <v>727.15</v>
       </c>
       <c r="O92" s="1">
-        <f>P92/B$81</f>
+        <f t="shared" si="22"/>
         <v>5.6429427946674188E-2</v>
       </c>
       <c r="P92" s="5">
@@ -2955,7 +3137,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C93">
@@ -2969,29 +3151,29 @@
         <v>646</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>646</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>4.5566763066939409E-2</v>
       </c>
       <c r="J93" s="2">
         <v>646</v>
       </c>
       <c r="K93">
+        <f t="shared" si="27"/>
+        <v>646</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
         <f t="shared" si="22"/>
-        <v>646</v>
-      </c>
-      <c r="M93" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="2">
-        <v>0</v>
-      </c>
-      <c r="O93" s="1">
-        <f>P93/B$81</f>
         <v>0</v>
       </c>
       <c r="P93" s="5">
@@ -3017,7 +3199,7 @@
         <v>17024.919999999998</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2374.9199999999983</v>
       </c>
       <c r="I94" s="1">
@@ -3029,7 +3211,7 @@
         <v>17024.919999999998</v>
       </c>
       <c r="K94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2374.9199999999983</v>
       </c>
       <c r="M94" s="1">
@@ -3067,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>14000</v>
+        <v>14141</v>
       </c>
       <c r="M100" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -3108,14 +3290,14 @@
       </c>
       <c r="B103" s="1">
         <f>C103/B$100</f>
-        <v>0.18571428571428572</v>
+        <v>0.18386252740258821</v>
       </c>
       <c r="C103">
         <v>2600</v>
       </c>
       <c r="E103" s="1">
         <f>F103/B$100</f>
-        <v>9.285714285714286E-2</v>
+        <v>9.1931263701294105E-2</v>
       </c>
       <c r="F103">
         <v>1300</v>
@@ -3126,7 +3308,7 @@
       </c>
       <c r="I103" s="1">
         <f>J103/B$100</f>
-        <v>0.18571428571428572</v>
+        <v>0.18386252740258821</v>
       </c>
       <c r="J103">
         <v>2600</v>
@@ -3137,14 +3319,14 @@
       </c>
       <c r="M103" s="1">
         <f>N103/B$100</f>
-        <v>0.18571428571428572</v>
+        <v>0.18386252740258821</v>
       </c>
       <c r="N103">
         <v>2600</v>
       </c>
       <c r="O103" s="1">
         <f>P103/B$100</f>
-        <v>0.18571428571428572</v>
+        <v>0.18386252740258821</v>
       </c>
       <c r="P103" s="4">
         <f>N103-H103</f>
@@ -3157,37 +3339,43 @@
       </c>
       <c r="B104" s="1">
         <f>C104/B$100</f>
-        <v>7.857142857142857E-2</v>
+        <v>7.7787992362633479E-2</v>
       </c>
       <c r="C104">
         <v>1100</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" ref="E104:E112" si="24">F104/B$100</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="2"/>
+        <f t="shared" ref="E104:E112" si="29">F104/B$100</f>
+        <v>4.6955660844353299E-2</v>
+      </c>
+      <c r="F104" s="2">
+        <v>664</v>
+      </c>
       <c r="G104">
-        <f t="shared" ref="G104:G113" si="25">F104-C104/2</f>
-        <v>-550</v>
+        <f t="shared" ref="G104:G113" si="30">F104-C104/2</f>
+        <v>114</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" ref="I104:I112" si="26">J104/B$100</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="2"/>
+        <f t="shared" ref="I104:I112" si="31">J104/B$100</f>
+        <v>8.8348773071211362E-2</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1249.3399999999999</v>
+      </c>
       <c r="K104">
-        <f t="shared" ref="K104:K113" si="27">J104-C104</f>
-        <v>-1100</v>
+        <f t="shared" ref="K104:K113" si="32">J104-C104</f>
+        <v>149.33999999999992</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" ref="M104:M112" si="28">N104/B$100</f>
-        <v>0</v>
-      </c>
-      <c r="N104" s="2"/>
+        <f t="shared" ref="M104:M112" si="33">N104/B$100</f>
+        <v>8.8348773071211362E-2</v>
+      </c>
+      <c r="N104" s="2">
+        <v>1249.3399999999999</v>
+      </c>
       <c r="O104" s="1">
-        <f t="shared" ref="O104:O112" si="29">P104/B$100</f>
-        <v>7.857142857142857E-2</v>
+        <f t="shared" ref="O104:O112" si="34">P104/B$100</f>
+        <v>7.7787992362633479E-2</v>
       </c>
       <c r="P104" s="5">
         <v>1100</v>
@@ -3198,38 +3386,44 @@
         <v>14</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:B112" si="30">C105/B$100</f>
-        <v>6.4285714285714279E-2</v>
+        <f t="shared" ref="B105:B112" si="35">C105/B$100</f>
+        <v>6.3644721023972839E-2</v>
       </c>
       <c r="C105">
         <v>900</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="2"/>
+        <f t="shared" si="29"/>
+        <v>7.6256276076656526E-2</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1078.3399999999999</v>
+      </c>
       <c r="G105">
-        <f t="shared" si="25"/>
-        <v>-450</v>
+        <f t="shared" si="30"/>
+        <v>628.33999999999992</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="2"/>
+        <f t="shared" si="31"/>
+        <v>0.10216250618768122</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1444.68</v>
+      </c>
       <c r="K105">
-        <f t="shared" si="27"/>
-        <v>-900</v>
+        <f t="shared" si="32"/>
+        <v>544.68000000000006</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N105" s="2"/>
+        <f t="shared" si="33"/>
+        <v>0.10216250618768122</v>
+      </c>
+      <c r="N105" s="2">
+        <v>1444.68</v>
+      </c>
       <c r="O105" s="1">
-        <f t="shared" si="29"/>
-        <v>0.05</v>
+        <f t="shared" si="34"/>
+        <v>4.9501449685312213E-2</v>
       </c>
       <c r="P105" s="5">
         <v>700</v>
@@ -3240,38 +3434,47 @@
         <v>15</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" si="30"/>
-        <v>3.5714285714285712E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.5358178346651579E-2</v>
       </c>
       <c r="C106">
         <v>500</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>8.2667420974471398E-2</v>
+      </c>
+      <c r="F106">
+        <v>1169</v>
       </c>
       <c r="G106">
-        <f t="shared" si="25"/>
-        <v>-250</v>
+        <f t="shared" si="30"/>
+        <v>919</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>0.20274379463970016</v>
+      </c>
+      <c r="J106" s="2">
+        <v>2867</v>
       </c>
       <c r="K106">
-        <f t="shared" si="27"/>
-        <v>-500</v>
+        <f t="shared" si="32"/>
+        <v>2367</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>0.20274379463970016</v>
+      </c>
+      <c r="N106">
+        <v>2867</v>
       </c>
       <c r="O106" s="1">
-        <f t="shared" si="29"/>
-        <v>3.5714285714285712E-2</v>
+        <f t="shared" si="34"/>
+        <v>9.1931263701294105E-2</v>
       </c>
       <c r="P106" s="5">
-        <v>500</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -3279,38 +3482,47 @@
         <v>6</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" si="30"/>
-        <v>4.2857142857142858E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.24298140159819E-2</v>
       </c>
       <c r="C107">
         <v>600</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>-300</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>-600</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N107">
         <v>0</v>
       </c>
       <c r="O107" s="1">
-        <f t="shared" si="29"/>
-        <v>4.2857142857142858E-2</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="P107" s="5">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -3318,35 +3530,44 @@
         <v>7</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" si="30"/>
-        <v>0.21428571428571427</v>
+        <f t="shared" si="35"/>
+        <v>0.21214907007990949</v>
       </c>
       <c r="C108">
         <v>3000</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>-1500</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="J108">
+        <v>3000</v>
       </c>
       <c r="K108">
-        <f t="shared" si="27"/>
-        <v>-3000</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="N108">
+        <v>3000</v>
       </c>
       <c r="O108" s="1">
-        <f t="shared" si="29"/>
-        <v>0.21428571428571427</v>
+        <f t="shared" si="34"/>
+        <v>0.21214907007990949</v>
       </c>
       <c r="P108" s="5">
         <v>3000</v>
@@ -3357,35 +3578,44 @@
         <v>8</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" si="30"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="35"/>
+        <v>0.28286542677321264</v>
       </c>
       <c r="C109">
         <v>4000</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>-2000</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="J109">
+        <v>4000</v>
       </c>
       <c r="K109">
-        <f t="shared" si="27"/>
-        <v>-4000</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="N109">
+        <v>4000</v>
       </c>
       <c r="O109" s="1">
-        <f t="shared" si="29"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="34"/>
+        <v>0.28286542677321264</v>
       </c>
       <c r="P109" s="5">
         <v>4000</v>
@@ -3396,41 +3626,47 @@
         <v>10</v>
       </c>
       <c r="B110" s="1">
-        <f t="shared" si="30"/>
-        <v>4.642857142857143E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.5965631850647053E-2</v>
       </c>
       <c r="C110">
         <v>650</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="2"/>
+        <f t="shared" si="29"/>
+        <v>3.3569054522311008E-2</v>
+      </c>
+      <c r="F110" s="2">
+        <v>474.7</v>
+      </c>
       <c r="G110">
-        <f t="shared" si="25"/>
-        <v>-325</v>
+        <f t="shared" si="30"/>
+        <v>149.69999999999999</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="2"/>
+        <f t="shared" si="31"/>
+        <v>4.6443674421893781E-2</v>
+      </c>
+      <c r="J110" s="2">
+        <v>656.76</v>
+      </c>
       <c r="K110">
-        <f t="shared" si="27"/>
-        <v>-650</v>
+        <f t="shared" si="32"/>
+        <v>6.7599999999999909</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N110" s="2"/>
+        <f t="shared" si="33"/>
+        <v>4.6443674421893781E-2</v>
+      </c>
+      <c r="N110" s="2">
+        <v>656.76</v>
+      </c>
       <c r="O110" s="1">
-        <f t="shared" si="29"/>
-        <v>4.642857142857143E-2</v>
+        <f t="shared" si="34"/>
+        <v>3.889399618131674E-2</v>
       </c>
       <c r="P110" s="5">
-        <v>650</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -3438,35 +3674,44 @@
         <v>16</v>
       </c>
       <c r="B111" s="1">
-        <f t="shared" si="30"/>
-        <v>5.7142857142857141E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.6573085354642526E-2</v>
       </c>
       <c r="C111">
         <v>800</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.4228838130259529</v>
+      </c>
+      <c r="F111">
+        <v>5980</v>
       </c>
       <c r="G111">
-        <f t="shared" si="25"/>
-        <v>-400</v>
+        <f t="shared" si="30"/>
+        <v>5580</v>
       </c>
       <c r="I111" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>0.43047874973481365</v>
+      </c>
+      <c r="J111">
+        <v>6087.4</v>
       </c>
       <c r="K111">
-        <f t="shared" si="27"/>
-        <v>-800</v>
+        <f t="shared" si="32"/>
+        <v>5287.4</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>2.0323880913655328E-2</v>
+      </c>
+      <c r="N111">
+        <v>287.39999999999998</v>
       </c>
       <c r="O111" s="1">
-        <f t="shared" si="29"/>
-        <v>6.4285714285714279E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.3644721023972839E-2</v>
       </c>
       <c r="P111" s="5">
         <v>900</v>
@@ -3477,37 +3722,43 @@
         <v>11</v>
       </c>
       <c r="B112" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="29"/>
+        <v>1.6830492893006151E-2</v>
+      </c>
+      <c r="F112" s="2">
+        <v>238</v>
+      </c>
+      <c r="G112">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="2"/>
+        <f t="shared" si="31"/>
+        <v>3.0832331518280177E-2</v>
+      </c>
+      <c r="J112" s="2">
+        <v>436</v>
+      </c>
       <c r="K112">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>436</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N112" s="2"/>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
       <c r="O112" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P112" s="5">
@@ -3518,7 +3769,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1">
         <f>SUM(B103:B112)</f>
-        <v>1.0107142857142857</v>
+        <v>1.0006364472102398</v>
       </c>
       <c r="C113">
         <f>SUM(C103:C112)</f>
@@ -3526,43 +3777,2224 @@
       </c>
       <c r="E113" s="1">
         <f>SUM(E103:E112)</f>
-        <v>9.285714285714286E-2</v>
+        <v>0.77109398203804547</v>
       </c>
       <c r="F113">
         <f>SUM(F103:F112)</f>
-        <v>1300</v>
+        <v>10904.04</v>
       </c>
       <c r="G113">
-        <f t="shared" si="25"/>
-        <v>-5775</v>
+        <f t="shared" si="30"/>
+        <v>3829.0400000000009</v>
       </c>
       <c r="I113" s="1">
         <f>SUM(I103:I112)</f>
-        <v>0.18571428571428572</v>
+        <v>1.5798868538292905</v>
       </c>
       <c r="J113">
         <f>SUM(J103:J112)</f>
-        <v>2600</v>
+        <v>22341.18</v>
       </c>
       <c r="K113">
-        <f t="shared" si="27"/>
-        <v>-11550</v>
+        <f t="shared" si="32"/>
+        <v>8191.18</v>
       </c>
       <c r="M113" s="1">
         <f>SUM(M103:M112)</f>
-        <v>0.18571428571428572</v>
+        <v>1.1388996534898519</v>
       </c>
       <c r="N113">
         <f>SUM(N103:N112)</f>
-        <v>2600</v>
+        <v>16105.18</v>
       </c>
       <c r="O113" s="1">
         <f>SUM(O103:O112)</f>
-        <v>1.0035714285714286</v>
+        <v>1.0006364472102398</v>
       </c>
       <c r="P113" s="5">
         <f>SUM(P103:P112)</f>
-        <v>14050</v>
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116">
+        <v>201911</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>14141</v>
+      </c>
+      <c r="M119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s">
+        <v>23</v>
+      </c>
+      <c r="J121" t="s">
+        <v>13</v>
+      </c>
+      <c r="K121" t="s">
+        <v>20</v>
+      </c>
+      <c r="N121" t="s">
+        <v>13</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="1">
+        <f>C122/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="C122">
+        <v>2600</v>
+      </c>
+      <c r="E122" s="1">
+        <f>F122/B$100</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F122">
+        <v>1300</v>
+      </c>
+      <c r="G122">
+        <f>F122-C122/2</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <f>J122/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="J122">
+        <v>2600</v>
+      </c>
+      <c r="K122">
+        <f>J122-C122</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
+        <f>N122/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="N122">
+        <v>2600</v>
+      </c>
+      <c r="O122" s="1">
+        <f>P122/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="P122" s="4">
+        <f>N122-H122</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="1">
+        <f>C123/B$100</f>
+        <v>7.7787992362633479E-2</v>
+      </c>
+      <c r="C123">
+        <v>1100</v>
+      </c>
+      <c r="E123" s="1">
+        <f t="shared" ref="E123:E131" si="36">F123/B$100</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123">
+        <f t="shared" ref="G123:G132" si="37">F123-C123/2</f>
+        <v>-550</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" ref="I123:I131" si="38">J123/B$100</f>
+        <v>8.5413337104872353E-2</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1207.83</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ref="K123:K132" si="39">J123-C123</f>
+        <v>107.82999999999993</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" ref="M123:M131" si="40">N123/B$100</f>
+        <v>8.5413337104872353E-2</v>
+      </c>
+      <c r="N123" s="2">
+        <v>1207.83</v>
+      </c>
+      <c r="O123" s="1">
+        <f t="shared" ref="O123:O131" si="41">P123/B$100</f>
+        <v>7.7787992362633479E-2</v>
+      </c>
+      <c r="P123" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" ref="B124:B131" si="42">C124/B$100</f>
+        <v>4.9501449685312213E-2</v>
+      </c>
+      <c r="C124">
+        <v>700</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124">
+        <f t="shared" si="37"/>
+        <v>-350</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="38"/>
+        <v>2.5536383565518704E-2</v>
+      </c>
+      <c r="J124" s="2">
+        <v>361.11</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="39"/>
+        <v>-338.89</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="40"/>
+        <v>2.5536383565518704E-2</v>
+      </c>
+      <c r="N124" s="2">
+        <v>361.11</v>
+      </c>
+      <c r="O124" s="1">
+        <f t="shared" si="41"/>
+        <v>4.9501449685312213E-2</v>
+      </c>
+      <c r="P124" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="42"/>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="C125">
+        <v>1300</v>
+      </c>
+      <c r="E125" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="37"/>
+        <v>-650</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="38"/>
+        <v>0.19076585814298846</v>
+      </c>
+      <c r="J125" s="2">
+        <v>2697.62</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="39"/>
+        <v>1397.62</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="40"/>
+        <v>0.19076585814298846</v>
+      </c>
+      <c r="N125" s="2">
+        <v>2697.62</v>
+      </c>
+      <c r="O125" s="1">
+        <f t="shared" si="41"/>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="P125" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="42"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="C127">
+        <v>3000</v>
+      </c>
+      <c r="E127" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="37"/>
+        <v>-1500</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="38"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="J127" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="40"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="N127" s="2">
+        <v>3000</v>
+      </c>
+      <c r="O127" s="1">
+        <f t="shared" si="41"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="P127" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="42"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="C128">
+        <v>4000</v>
+      </c>
+      <c r="E128" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="37"/>
+        <v>-2000</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" si="38"/>
+        <v>5.5754897107701006E-2</v>
+      </c>
+      <c r="J128" s="2">
+        <v>788.43</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="39"/>
+        <v>-3211.57</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="40"/>
+        <v>5.5754897107701006E-2</v>
+      </c>
+      <c r="N128" s="2">
+        <v>788.43</v>
+      </c>
+      <c r="O128" s="1">
+        <f t="shared" si="41"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="P128" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="42"/>
+        <v>3.889399618131674E-2</v>
+      </c>
+      <c r="C129">
+        <v>550</v>
+      </c>
+      <c r="E129" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129">
+        <f t="shared" si="37"/>
+        <v>-275</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" si="38"/>
+        <v>6.9290007778799234E-2</v>
+      </c>
+      <c r="J129" s="2">
+        <v>979.83</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="39"/>
+        <v>429.83000000000004</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="40"/>
+        <v>6.9290007778799234E-2</v>
+      </c>
+      <c r="N129" s="2">
+        <v>979.83</v>
+      </c>
+      <c r="O129" s="1">
+        <f t="shared" si="41"/>
+        <v>3.889399618131674E-2</v>
+      </c>
+      <c r="P129" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="42"/>
+        <v>6.3644721023972839E-2</v>
+      </c>
+      <c r="C130">
+        <v>900</v>
+      </c>
+      <c r="E130" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="37"/>
+        <v>-450</v>
+      </c>
+      <c r="I130" s="1">
+        <f t="shared" si="38"/>
+        <v>0.15996039884025176</v>
+      </c>
+      <c r="J130">
+        <v>2262</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="39"/>
+        <v>1362</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="40"/>
+        <v>9.6315677816278908E-2</v>
+      </c>
+      <c r="N130">
+        <v>1362</v>
+      </c>
+      <c r="O130" s="1">
+        <f t="shared" si="41"/>
+        <v>6.3644721023972839E-2</v>
+      </c>
+      <c r="P130" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" si="38"/>
+        <v>1.7267519977370766E-2</v>
+      </c>
+      <c r="J131" s="2">
+        <v>244.18</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="39"/>
+        <v>244.18</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="P131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1">
+        <f>SUM(B122:B131)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="C132">
+        <f>SUM(C122:C131)</f>
+        <v>14150</v>
+      </c>
+      <c r="E132" s="1">
+        <f>SUM(E122:E131)</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F132">
+        <f>SUM(F122:F131)</f>
+        <v>1300</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="37"/>
+        <v>-5775</v>
+      </c>
+      <c r="I132" s="1">
+        <f>SUM(I122:I131)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J132">
+        <f>SUM(J122:J131)</f>
+        <v>14141</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="39"/>
+        <v>-9</v>
+      </c>
+      <c r="M132" s="1">
+        <f>SUM(M122:M131)</f>
+        <v>0.91908775899865636</v>
+      </c>
+      <c r="N132">
+        <f>SUM(N122:N131)</f>
+        <v>12996.82</v>
+      </c>
+      <c r="O132" s="1">
+        <f>SUM(O122:O131)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="P132" s="5">
+        <f>SUM(P122:P131)</f>
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135">
+        <v>201912</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>14213</v>
+      </c>
+      <c r="M138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="J140" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" t="s">
+        <v>20</v>
+      </c>
+      <c r="N140" t="s">
+        <v>13</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="1">
+        <f>C141/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="C141">
+        <v>2600</v>
+      </c>
+      <c r="E141" s="1">
+        <f>F141/B$100</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F141">
+        <v>1300</v>
+      </c>
+      <c r="G141">
+        <f>F141-C141/2</f>
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <f>J141/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="J141">
+        <v>2600</v>
+      </c>
+      <c r="K141">
+        <f>J141-C141</f>
+        <v>0</v>
+      </c>
+      <c r="M141" s="1">
+        <f>N141/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="N141">
+        <v>2600</v>
+      </c>
+      <c r="O141" s="1">
+        <f>P141/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="P141" s="4">
+        <f>N141-H141</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="1">
+        <f>C142/B$100</f>
+        <v>7.7787992362633479E-2</v>
+      </c>
+      <c r="C142">
+        <v>1100</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" ref="E142:E150" si="43">F142/B$100</f>
+        <v>0</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142">
+        <f t="shared" ref="G142:G151" si="44">F142-C142/2</f>
+        <v>-550</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" ref="I142:I150" si="45">J142/B$100</f>
+        <v>0.10315465667208826</v>
+      </c>
+      <c r="J142" s="2">
+        <v>1458.71</v>
+      </c>
+      <c r="K142">
+        <f t="shared" ref="K142:K151" si="46">J142-C142</f>
+        <v>358.71000000000004</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" ref="M142:M150" si="47">N142/B$100</f>
+        <v>0.10315465667208826</v>
+      </c>
+      <c r="N142" s="2">
+        <v>1458.71</v>
+      </c>
+      <c r="O142" s="1">
+        <f t="shared" ref="O142:O150" si="48">P142/B$100</f>
+        <v>8.8395445866628952E-2</v>
+      </c>
+      <c r="P142" s="5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" ref="B143:B150" si="49">C143/B$100</f>
+        <v>4.9501449685312213E-2</v>
+      </c>
+      <c r="C143">
+        <v>700</v>
+      </c>
+      <c r="E143" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143">
+        <f t="shared" si="44"/>
+        <v>-350</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" si="45"/>
+        <v>4.4127713740188104E-2</v>
+      </c>
+      <c r="J143" s="2">
+        <v>624.01</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="46"/>
+        <v>-75.990000000000009</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="47"/>
+        <v>4.4127713740188104E-2</v>
+      </c>
+      <c r="N143" s="2">
+        <v>624.01</v>
+      </c>
+      <c r="O143" s="1">
+        <f t="shared" si="48"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="P143" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" si="49"/>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="C144">
+        <v>1300</v>
+      </c>
+      <c r="E144" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="44"/>
+        <v>-650</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" si="45"/>
+        <v>0.17998727105579521</v>
+      </c>
+      <c r="J144" s="2">
+        <v>2545.1999999999998</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="46"/>
+        <v>1245.1999999999998</v>
+      </c>
+      <c r="M144" s="1">
+        <f t="shared" si="47"/>
+        <v>4.9444876599957575E-2</v>
+      </c>
+      <c r="N144" s="2">
+        <v>699.2</v>
+      </c>
+      <c r="O144" s="1">
+        <f t="shared" si="48"/>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="P144" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="1">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M145" s="1">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="1">
+        <f t="shared" si="49"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="C146">
+        <v>3000</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="44"/>
+        <v>-1500</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="45"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="J146" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M146" s="1">
+        <f t="shared" si="47"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="N146" s="2">
+        <v>3000</v>
+      </c>
+      <c r="O146" s="1">
+        <f t="shared" si="48"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="P146" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1">
+        <f t="shared" si="49"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="C147">
+        <v>4000</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="44"/>
+        <v>-2000</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="45"/>
+        <v>0.14459444169436392</v>
+      </c>
+      <c r="J147" s="2">
+        <v>2044.71</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="46"/>
+        <v>-1955.29</v>
+      </c>
+      <c r="M147" s="1">
+        <f t="shared" si="47"/>
+        <v>0.14459444169436392</v>
+      </c>
+      <c r="N147" s="2">
+        <v>2044.71</v>
+      </c>
+      <c r="O147" s="1">
+        <f t="shared" si="48"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="P147" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" si="49"/>
+        <v>3.889399618131674E-2</v>
+      </c>
+      <c r="C148">
+        <v>550</v>
+      </c>
+      <c r="E148" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148">
+        <f t="shared" si="44"/>
+        <v>-275</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" si="45"/>
+        <v>9.566650166183438E-2</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1352.82</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="46"/>
+        <v>802.81999999999994</v>
+      </c>
+      <c r="M148" s="1">
+        <f t="shared" si="47"/>
+        <v>9.566650166183438E-2</v>
+      </c>
+      <c r="N148" s="2">
+        <v>1352.82</v>
+      </c>
+      <c r="O148" s="1">
+        <f t="shared" si="48"/>
+        <v>4.24298140159819E-2</v>
+      </c>
+      <c r="P148" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" si="49"/>
+        <v>6.3644721023972839E-2</v>
+      </c>
+      <c r="C149">
+        <v>900</v>
+      </c>
+      <c r="E149" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="44"/>
+        <v>-450</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" si="45"/>
+        <v>3.3558447068807014E-2</v>
+      </c>
+      <c r="J149">
+        <v>474.55</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="46"/>
+        <v>-425.45</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" si="47"/>
+        <v>3.3558447068807014E-2</v>
+      </c>
+      <c r="N149">
+        <v>474.55</v>
+      </c>
+      <c r="O149" s="1">
+        <f t="shared" si="48"/>
+        <v>4.24298140159819E-2</v>
+      </c>
+      <c r="P149" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" si="45"/>
+        <v>3.5358178346651579E-3</v>
+      </c>
+      <c r="J150" s="2">
+        <v>50</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="46"/>
+        <v>50</v>
+      </c>
+      <c r="M150" s="1">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N150" s="2">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1">
+        <f>SUM(B141:B150)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="C151">
+        <f>SUM(C141:C150)</f>
+        <v>14150</v>
+      </c>
+      <c r="E151" s="1">
+        <f>SUM(E141:E150)</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F151">
+        <f>SUM(F141:F150)</f>
+        <v>1300</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="44"/>
+        <v>-5775</v>
+      </c>
+      <c r="I151" s="1">
+        <f>SUM(I141:I150)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="J151">
+        <f>SUM(J141:J150)</f>
+        <v>14150</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M151" s="1">
+        <f>SUM(M141:M150)</f>
+        <v>0.86655823491973694</v>
+      </c>
+      <c r="N151">
+        <f>SUM(N141:N150)</f>
+        <v>12254</v>
+      </c>
+      <c r="O151" s="1">
+        <f>SUM(O141:O150)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="P151" s="5">
+        <f>SUM(P141:P150)</f>
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154">
+        <v>202001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>14522.77</v>
+      </c>
+      <c r="M157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" t="s">
+        <v>23</v>
+      </c>
+      <c r="J159" t="s">
+        <v>13</v>
+      </c>
+      <c r="K159" t="s">
+        <v>20</v>
+      </c>
+      <c r="N159" t="s">
+        <v>13</v>
+      </c>
+      <c r="P159" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="1">
+        <f>C160/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="C160">
+        <v>2600</v>
+      </c>
+      <c r="E160" s="1">
+        <f>F160/B$100</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F160">
+        <v>1300</v>
+      </c>
+      <c r="G160">
+        <f>F160-C160/2</f>
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <f>J160/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="J160">
+        <v>2600</v>
+      </c>
+      <c r="K160">
+        <f>J160-C160</f>
+        <v>0</v>
+      </c>
+      <c r="M160" s="1">
+        <f>N160/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="N160">
+        <v>2600</v>
+      </c>
+      <c r="O160" s="1">
+        <f>P160/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="P160" s="4">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1">
+        <f>C161/B$100</f>
+        <v>8.8395445866628952E-2</v>
+      </c>
+      <c r="C161" s="5">
+        <v>1250</v>
+      </c>
+      <c r="E161" s="1">
+        <f t="shared" ref="E161:E169" si="50">F161/B$100</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161">
+        <f t="shared" ref="G161:G170" si="51">F161-C161/2</f>
+        <v>-625</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" ref="I161:I169" si="52">J161/B$100</f>
+        <v>6.2388091365532847E-2</v>
+      </c>
+      <c r="J161" s="2">
+        <v>882.23</v>
+      </c>
+      <c r="K161">
+        <f t="shared" ref="K161:K170" si="53">J161-C161</f>
+        <v>-367.77</v>
+      </c>
+      <c r="M161" s="1">
+        <f t="shared" ref="M161:M169" si="54">N161/B$100</f>
+        <v>6.2388091365532847E-2</v>
+      </c>
+      <c r="N161" s="2">
+        <v>882.23</v>
+      </c>
+      <c r="O161" s="1">
+        <f t="shared" ref="O161:O169" si="55">P161/B$100</f>
+        <v>8.8395445866628952E-2</v>
+      </c>
+      <c r="P161" s="5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" ref="B162:B169" si="56">C162/B$100</f>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="C162" s="5">
+        <v>800</v>
+      </c>
+      <c r="E162" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162">
+        <f t="shared" si="51"/>
+        <v>-400</v>
+      </c>
+      <c r="I162" s="1">
+        <f t="shared" si="52"/>
+        <v>4.4020932041581216E-2</v>
+      </c>
+      <c r="J162" s="2">
+        <v>622.5</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="53"/>
+        <v>-177.5</v>
+      </c>
+      <c r="M162" s="1">
+        <f t="shared" si="54"/>
+        <v>4.4020932041581216E-2</v>
+      </c>
+      <c r="N162" s="2">
+        <v>622.5</v>
+      </c>
+      <c r="O162" s="1">
+        <f t="shared" si="55"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="P162" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
+      <c r="A163" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="56"/>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1300</v>
+      </c>
+      <c r="E163" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="51"/>
+        <v>-650</v>
+      </c>
+      <c r="I163" s="1">
+        <f t="shared" si="52"/>
+        <v>8.881267237111945E-2</v>
+      </c>
+      <c r="J163" s="2">
+        <v>1255.9000000000001</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="53"/>
+        <v>-44.099999999999909</v>
+      </c>
+      <c r="M163" s="1">
+        <f t="shared" si="54"/>
+        <v>8.881267237111945E-2</v>
+      </c>
+      <c r="N163" s="2">
+        <v>1255.9000000000001</v>
+      </c>
+      <c r="O163" s="1">
+        <f t="shared" si="55"/>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="P163" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" s="1">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="C164" s="5">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="M164" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O164" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="1">
+        <f t="shared" si="56"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="C165" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E165" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="51"/>
+        <v>-1500</v>
+      </c>
+      <c r="I165" s="1">
+        <f t="shared" si="52"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="J165" s="2">
+        <v>3000</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="M165" s="1">
+        <f t="shared" si="54"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="N165" s="2">
+        <v>3000</v>
+      </c>
+      <c r="O165" s="1">
+        <f t="shared" si="55"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="P165" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="1">
+        <f t="shared" si="56"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="C166" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E166" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="51"/>
+        <v>-2000</v>
+      </c>
+      <c r="I166" s="1">
+        <f t="shared" si="52"/>
+        <v>0.12899936355278976</v>
+      </c>
+      <c r="J166" s="2">
+        <v>1824.18</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="53"/>
+        <v>-2175.8199999999997</v>
+      </c>
+      <c r="M166" s="1">
+        <f t="shared" si="54"/>
+        <v>0.12899936355278976</v>
+      </c>
+      <c r="N166" s="2">
+        <v>1824.18</v>
+      </c>
+      <c r="O166" s="1">
+        <f t="shared" si="55"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="P166" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1">
+        <f t="shared" si="56"/>
+        <v>4.24298140159819E-2</v>
+      </c>
+      <c r="C167" s="5">
+        <v>600</v>
+      </c>
+      <c r="E167" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167">
+        <f t="shared" si="51"/>
+        <v>-300</v>
+      </c>
+      <c r="I167" s="1">
+        <f t="shared" si="52"/>
+        <v>0.10030195884308039</v>
+      </c>
+      <c r="J167" s="2">
+        <v>1418.37</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="53"/>
+        <v>818.36999999999989</v>
+      </c>
+      <c r="M167" s="1">
+        <f t="shared" si="54"/>
+        <v>5.7872144827098508E-2</v>
+      </c>
+      <c r="N167" s="2">
+        <v>818.37</v>
+      </c>
+      <c r="O167" s="1">
+        <f t="shared" si="55"/>
+        <v>4.24298140159819E-2</v>
+      </c>
+      <c r="P167" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="1">
+        <f t="shared" si="56"/>
+        <v>4.24298140159819E-2</v>
+      </c>
+      <c r="C168" s="5">
+        <v>600</v>
+      </c>
+      <c r="E168" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="51"/>
+        <v>-300</v>
+      </c>
+      <c r="I168" s="1">
+        <f t="shared" si="52"/>
+        <v>0.12876599957570187</v>
+      </c>
+      <c r="J168">
+        <v>1820.88</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="53"/>
+        <v>1220.8800000000001</v>
+      </c>
+      <c r="M168" s="1">
+        <f t="shared" si="54"/>
+        <v>5.5220988614666573E-2</v>
+      </c>
+      <c r="N168" s="2">
+        <v>780.88</v>
+      </c>
+      <c r="O168" s="1">
+        <f t="shared" si="55"/>
+        <v>4.24298140159819E-2</v>
+      </c>
+      <c r="P168" s="5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" s="1">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="C169" s="5">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I169" s="1">
+        <f t="shared" si="52"/>
+        <v>5.1335831977936501E-2</v>
+      </c>
+      <c r="J169" s="2">
+        <v>725.94</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="53"/>
+        <v>725.94</v>
+      </c>
+      <c r="M169" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="2">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1">
+        <f>SUM(B160:B169)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="C170">
+        <f>SUM(C160:C169)</f>
+        <v>14150</v>
+      </c>
+      <c r="E170" s="1">
+        <f>SUM(E160:E169)</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F170">
+        <f>SUM(F160:F169)</f>
+        <v>1300</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="51"/>
+        <v>-5775</v>
+      </c>
+      <c r="I170" s="1">
+        <f>SUM(I160:I169)</f>
+        <v>1.0006364472102396</v>
+      </c>
+      <c r="J170">
+        <f>SUM(J160:J169)</f>
+        <v>14150.000000000002</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="M170" s="1">
+        <f>SUM(M160:M169)</f>
+        <v>0.83332579025528597</v>
+      </c>
+      <c r="N170">
+        <f>SUM(N160:N169)</f>
+        <v>11784.06</v>
+      </c>
+      <c r="O170" s="1">
+        <f>SUM(O160:O169)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="P170" s="5">
+        <f>SUM(P160:P169)</f>
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173">
+        <v>202002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>14150</v>
+      </c>
+      <c r="M176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16">
+      <c r="A178" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>23</v>
+      </c>
+      <c r="J178" t="s">
+        <v>13</v>
+      </c>
+      <c r="K178" t="s">
+        <v>20</v>
+      </c>
+      <c r="N178" t="s">
+        <v>13</v>
+      </c>
+      <c r="P178" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" s="1">
+        <f>C179/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="C179">
+        <v>2600</v>
+      </c>
+      <c r="E179" s="1">
+        <f>F179/B$100</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F179">
+        <v>1300</v>
+      </c>
+      <c r="G179">
+        <f>F179-C179/2</f>
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <f>J179/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="J179">
+        <v>2600</v>
+      </c>
+      <c r="K179">
+        <f>J179-C179</f>
+        <v>0</v>
+      </c>
+      <c r="M179" s="1">
+        <f>N179/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="N179">
+        <v>2600</v>
+      </c>
+      <c r="O179" s="1">
+        <f>P179/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="P179" s="4">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="1">
+        <f>C180/B$100</f>
+        <v>8.8395445866628952E-2</v>
+      </c>
+      <c r="C180" s="5">
+        <v>1250</v>
+      </c>
+      <c r="E180" s="1">
+        <f t="shared" ref="E180:E188" si="57">F180/B$100</f>
+        <v>0</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180">
+        <f t="shared" ref="G180:G189" si="58">F180-C180/2</f>
+        <v>-625</v>
+      </c>
+      <c r="I180" s="1">
+        <f t="shared" ref="I180:I188" si="59">J180/B$100</f>
+        <v>0</v>
+      </c>
+      <c r="J180" s="2"/>
+      <c r="K180">
+        <f t="shared" ref="K180:K189" si="60">J180-C180</f>
+        <v>-1250</v>
+      </c>
+      <c r="M180" s="1">
+        <f t="shared" ref="M180:M188" si="61">N180/B$100</f>
+        <v>0</v>
+      </c>
+      <c r="N180" s="2"/>
+      <c r="O180" s="1">
+        <f t="shared" ref="O180:O188" si="62">P180/B$100</f>
+        <v>8.8395445866628952E-2</v>
+      </c>
+      <c r="P180" s="5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" s="1">
+        <f t="shared" ref="B181:B188" si="63">C181/B$100</f>
+        <v>4.9501449685312213E-2</v>
+      </c>
+      <c r="C181" s="5">
+        <v>700</v>
+      </c>
+      <c r="E181" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F181" s="2"/>
+      <c r="G181">
+        <f t="shared" si="58"/>
+        <v>-350</v>
+      </c>
+      <c r="I181" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J181" s="2"/>
+      <c r="K181">
+        <f t="shared" si="60"/>
+        <v>-700</v>
+      </c>
+      <c r="M181" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="1">
+        <f t="shared" si="62"/>
+        <v>4.9501449685312213E-2</v>
+      </c>
+      <c r="P181" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="1">
+        <f t="shared" si="63"/>
+        <v>7.0716356693303159E-2</v>
+      </c>
+      <c r="C182" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E182" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="58"/>
+        <v>-500</v>
+      </c>
+      <c r="I182" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="2"/>
+      <c r="K182">
+        <f t="shared" si="60"/>
+        <v>-1000</v>
+      </c>
+      <c r="M182" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O182" s="1">
+        <f t="shared" si="62"/>
+        <v>7.0716356693303159E-2</v>
+      </c>
+      <c r="P182" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="1">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I183" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="M183" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O183" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="P183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="1">
+        <f t="shared" si="63"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="C184" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E184" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="58"/>
+        <v>-1500</v>
+      </c>
+      <c r="I184" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="60"/>
+        <v>-3000</v>
+      </c>
+      <c r="M184" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O184" s="1">
+        <f t="shared" si="62"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="P184" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="1">
+        <f t="shared" si="63"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="C185" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E185" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="58"/>
+        <v>-2000</v>
+      </c>
+      <c r="I185" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="60"/>
+        <v>-4000</v>
+      </c>
+      <c r="M185" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O185" s="1">
+        <f t="shared" si="62"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="P185" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="1">
+        <f t="shared" si="63"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="C186" s="5">
+        <v>800</v>
+      </c>
+      <c r="E186" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="2"/>
+      <c r="G186">
+        <f t="shared" si="58"/>
+        <v>-400</v>
+      </c>
+      <c r="I186" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="2"/>
+      <c r="K186">
+        <f t="shared" si="60"/>
+        <v>-800</v>
+      </c>
+      <c r="M186" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N186" s="2"/>
+      <c r="O186" s="1">
+        <f t="shared" si="62"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="P186" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16">
+      <c r="A187" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" s="1">
+        <f t="shared" si="63"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="C187" s="5">
+        <v>800</v>
+      </c>
+      <c r="E187" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="58"/>
+        <v>-400</v>
+      </c>
+      <c r="I187" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="60"/>
+        <v>-800</v>
+      </c>
+      <c r="M187" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O187" s="1">
+        <f t="shared" si="62"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="P187" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="1">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I188" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="2"/>
+      <c r="K188">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="M188" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N188" s="2"/>
+      <c r="O188" s="1">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="P188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1">
+        <f>SUM(B179:B188)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="C189">
+        <f>SUM(C179:C188)</f>
+        <v>14150</v>
+      </c>
+      <c r="E189" s="1">
+        <f>SUM(E179:E188)</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F189">
+        <f>SUM(F179:F188)</f>
+        <v>1300</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="58"/>
+        <v>-5775</v>
+      </c>
+      <c r="I189" s="1">
+        <f>SUM(I179:I188)</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="J189">
+        <f>SUM(J179:J188)</f>
+        <v>2600</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="60"/>
+        <v>-11550</v>
+      </c>
+      <c r="M189" s="1">
+        <f>SUM(M179:M188)</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="N189">
+        <f>SUM(N179:N188)</f>
+        <v>2600</v>
+      </c>
+      <c r="O189" s="1">
+        <f>SUM(O179:O188)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="P189" s="5">
+        <f>SUM(P179:P188)</f>
+        <v>14150</v>
       </c>
     </row>
   </sheetData>
@@ -3570,4 +6002,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7055EAA-0599-A549-BD4D-EB8556047F70}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>43747</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>4800</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43808</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86B4AA1-47B3-E64C-8585-68C7BEF32899}">
+  <dimension ref="A1:W43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>154000</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <f>D43-W3</f>
+        <v>155100</v>
+      </c>
+      <c r="R3">
+        <f>D4+D5</f>
+        <v>25448.16</v>
+      </c>
+      <c r="T3">
+        <f>SUM(D8:D12,D6)</f>
+        <v>4500</v>
+      </c>
+      <c r="W3">
+        <f>SUM(R3:V3)</f>
+        <v>29948.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43865</v>
+      </c>
+      <c r="D4">
+        <v>11462.74</v>
+      </c>
+      <c r="G4">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4">
+        <f>Q3/$D$43*100</f>
+        <v>83.816018489457008</v>
+      </c>
+      <c r="R4">
+        <f>R3/$D$43*100</f>
+        <v>13.752182134639975</v>
+      </c>
+      <c r="S4">
+        <f>S3/$D$43*100</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:V4" si="0">T3/$D$43*100</f>
+        <v>2.4317993759030081</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f>SUM(R4:V4)</f>
+        <v>16.183981510542985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43710</v>
+      </c>
+      <c r="D5">
+        <v>13985.42</v>
+      </c>
+      <c r="G5">
+        <v>3.83</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5">
+        <v>5000</v>
+      </c>
+      <c r="R5">
+        <v>30000</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43787</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>50</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
+        <v>40</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43788</v>
+      </c>
+      <c r="D7">
+        <f>E7*F7</f>
+        <v>1100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7">
+        <f>FLOOR(_xlfn.DAYS(B1,C7),7)/7</f>
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43787</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43787</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43719</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43763</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43719</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="D43">
+        <f>SUM(D3:D42)</f>
+        <v>185048.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="Q6:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/财务预算.xlsx
+++ b/财务预算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livis/Documents/xmind/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB703D-6186-B348-85D1-3DED64655F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B55DF-D95C-ED4F-8610-EA7CFC2074FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{07A47855-4DE6-C342-9BD1-95789878DFF8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{07A47855-4DE6-C342-9BD1-95789878DFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="89">
   <si>
     <t>税前工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,79 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202001预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202002预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202003预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税前工资</t>
+  </si>
+  <si>
+    <t>税后工资</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>预算金额</t>
+  </si>
+  <si>
+    <t>月中金额</t>
+  </si>
+  <si>
+    <t>月中差值</t>
+  </si>
+  <si>
+    <t>实际金额</t>
+  </si>
+  <si>
+    <t>差值</t>
+  </si>
+  <si>
+    <t>居住</t>
+  </si>
+  <si>
+    <t>吃饭</t>
+  </si>
+  <si>
+    <t>聚餐</t>
+  </si>
+  <si>
+    <t>购物</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>储蓄</t>
+  </si>
+  <si>
+    <t>理财</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>202004预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,9 +371,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +413,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -363,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,11 +474,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F89829-ACD1-9741-AF5B-3030BB4ED207}">
-  <dimension ref="A2:P189"/>
+  <dimension ref="A2:P227"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="O200" sqref="O200"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="Q209" sqref="Q209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1085,7 +1183,7 @@
         <v>1766.37</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="1"/>
+        <f>P29/B$24</f>
         <v>6.7980965329707682E-2</v>
       </c>
       <c r="P29" s="5">
@@ -4947,7 +5045,7 @@
         <v>14522.77</v>
       </c>
       <c r="M157" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -5499,10 +5597,10 @@
         <v>1</v>
       </c>
       <c r="B176">
-        <v>14150</v>
+        <v>14677.98</v>
       </c>
       <c r="M176" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -5604,20 +5702,26 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" ref="I180:I188" si="59">J180/B$100</f>
-        <v>0</v>
-      </c>
-      <c r="J180" s="2"/>
+        <v>8.664097305706811E-2</v>
+      </c>
+      <c r="J180" s="4">
+        <f>81.3+1143.89</f>
+        <v>1225.19</v>
+      </c>
       <c r="K180">
         <f t="shared" ref="K180:K189" si="60">J180-C180</f>
-        <v>-1250</v>
+        <v>-24.809999999999945</v>
       </c>
       <c r="M180" s="1">
         <f t="shared" ref="M180:M188" si="61">N180/B$100</f>
-        <v>0</v>
-      </c>
-      <c r="N180" s="2"/>
+        <v>8.664097305706811E-2</v>
+      </c>
+      <c r="N180" s="4">
+        <f>81.3+1143.89</f>
+        <v>1225.19</v>
+      </c>
       <c r="O180" s="1">
-        <f t="shared" ref="O180:O188" si="62">P180/B$100</f>
+        <f>P180/B$100</f>
         <v>8.8395445866628952E-2</v>
       </c>
       <c r="P180" s="5">
@@ -5629,7 +5733,7 @@
         <v>14</v>
       </c>
       <c r="B181" s="1">
-        <f t="shared" ref="B181:B188" si="63">C181/B$100</f>
+        <f t="shared" ref="B181:B188" si="62">C181/B$100</f>
         <v>4.9501449685312213E-2</v>
       </c>
       <c r="C181" s="5">
@@ -5648,7 +5752,7 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="J181" s="2"/>
+      <c r="J181" s="4"/>
       <c r="K181">
         <f t="shared" si="60"/>
         <v>-700</v>
@@ -5657,9 +5761,9 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="N181" s="2"/>
+      <c r="N181" s="4"/>
       <c r="O181" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="O181:O188" si="63">P181/B$100</f>
         <v>4.9501449685312213E-2</v>
       </c>
       <c r="P181" s="5">
@@ -5671,7 +5775,7 @@
         <v>15</v>
       </c>
       <c r="B182" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>7.0716356693303159E-2</v>
       </c>
       <c r="C182" s="5">
@@ -5687,19 +5791,24 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="J182" s="2"/>
+        <v>4.9430733328618907E-2</v>
+      </c>
+      <c r="J182" s="4">
+        <v>699</v>
+      </c>
       <c r="K182">
         <f t="shared" si="60"/>
-        <v>-1000</v>
+        <v>-301</v>
       </c>
       <c r="M182" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4.9430733328618907E-2</v>
+      </c>
+      <c r="N182" s="4">
+        <v>699</v>
       </c>
       <c r="O182" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.0716356693303159E-2</v>
       </c>
       <c r="P182" s="5">
@@ -5711,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="B183" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="C183" s="5">
@@ -5729,6 +5838,9 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
+      <c r="J183" s="4">
+        <v>0</v>
+      </c>
       <c r="K183">
         <f t="shared" si="60"/>
         <v>0</v>
@@ -5737,8 +5849,11 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
+      <c r="N183" s="4">
+        <v>0</v>
+      </c>
       <c r="O183" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P183" s="5">
@@ -5750,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="B184" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.21214907007990949</v>
       </c>
       <c r="C184" s="5">
@@ -5766,18 +5881,24 @@
       </c>
       <c r="I184" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="J184" s="4">
+        <v>3000</v>
       </c>
       <c r="K184">
         <f t="shared" si="60"/>
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="M184" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="N184" s="4">
+        <v>3000</v>
       </c>
       <c r="O184" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.21214907007990949</v>
       </c>
       <c r="P184" s="5">
@@ -5789,7 +5910,7 @@
         <v>8</v>
       </c>
       <c r="B185" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0.28286542677321264</v>
       </c>
       <c r="C185" s="5">
@@ -5805,18 +5926,24 @@
       </c>
       <c r="I185" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="J185" s="4">
+        <v>4000</v>
       </c>
       <c r="K185">
         <f t="shared" si="60"/>
-        <v>-4000</v>
+        <v>0</v>
       </c>
       <c r="M185" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="N185" s="4">
+        <v>4000</v>
       </c>
       <c r="O185" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.28286542677321264</v>
       </c>
       <c r="P185" s="5">
@@ -5828,7 +5955,7 @@
         <v>10</v>
       </c>
       <c r="B186" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>5.6573085354642526E-2</v>
       </c>
       <c r="C186" s="5">
@@ -5845,20 +5972,24 @@
       </c>
       <c r="I186" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="J186" s="2"/>
+        <v>4.9225655894208327E-3</v>
+      </c>
+      <c r="J186" s="4">
+        <v>69.61</v>
+      </c>
       <c r="K186">
         <f t="shared" si="60"/>
-        <v>-800</v>
+        <v>-730.39</v>
       </c>
       <c r="M186" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="N186" s="2"/>
+        <v>4.9225655894208327E-3</v>
+      </c>
+      <c r="N186" s="4">
+        <v>69.61</v>
+      </c>
       <c r="O186" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5.6573085354642526E-2</v>
       </c>
       <c r="P186" s="5">
@@ -5870,7 +6001,7 @@
         <v>16</v>
       </c>
       <c r="B187" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>5.6573085354642526E-2</v>
       </c>
       <c r="C187" s="5">
@@ -5886,18 +6017,24 @@
       </c>
       <c r="I187" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1.4609999292836432E-2</v>
+      </c>
+      <c r="J187" s="4">
+        <v>206.6</v>
       </c>
       <c r="K187">
         <f t="shared" si="60"/>
-        <v>-800</v>
+        <v>-593.4</v>
       </c>
       <c r="M187" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.4609999292836432E-2</v>
+      </c>
+      <c r="N187" s="4">
+        <v>206.6</v>
       </c>
       <c r="O187" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5.6573085354642526E-2</v>
       </c>
       <c r="P187" s="5">
@@ -5909,7 +6046,7 @@
         <v>11</v>
       </c>
       <c r="B188" s="1">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="C188" s="5">
@@ -5928,7 +6065,9 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="J188" s="2"/>
+      <c r="J188" s="4">
+        <v>0</v>
+      </c>
       <c r="K188">
         <f t="shared" si="60"/>
         <v>0</v>
@@ -5937,9 +6076,11 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="N188" s="2"/>
+      <c r="N188" s="4">
+        <v>0</v>
+      </c>
       <c r="O188" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P188" s="5">
@@ -5970,23 +6111,23 @@
       </c>
       <c r="I189" s="1">
         <f>SUM(I179:I188)</f>
-        <v>0.18386252740258821</v>
+        <v>0.83448129552365469</v>
       </c>
       <c r="J189">
         <f>SUM(J179:J188)</f>
-        <v>2600</v>
+        <v>11800.400000000001</v>
       </c>
       <c r="K189">
         <f t="shared" si="60"/>
-        <v>-11550</v>
+        <v>-2349.5999999999985</v>
       </c>
       <c r="M189" s="1">
         <f>SUM(M179:M188)</f>
-        <v>0.18386252740258821</v>
+        <v>0.83448129552365469</v>
       </c>
       <c r="N189">
         <f>SUM(N179:N188)</f>
-        <v>2600</v>
+        <v>11800.400000000001</v>
       </c>
       <c r="O189" s="1">
         <f>SUM(O179:O188)</f>
@@ -5994,6 +6135,1125 @@
       </c>
       <c r="P189" s="5">
         <f>SUM(P179:P188)</f>
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16">
+      <c r="A192">
+        <v>202003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16">
+      <c r="A195" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>14813.77</v>
+      </c>
+      <c r="M195" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16">
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" t="s">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>23</v>
+      </c>
+      <c r="J197" t="s">
+        <v>13</v>
+      </c>
+      <c r="K197" t="s">
+        <v>20</v>
+      </c>
+      <c r="N197" t="s">
+        <v>13</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="1">
+        <f>C198/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="C198">
+        <v>2600</v>
+      </c>
+      <c r="E198" s="1">
+        <f>F198/B$100</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F198">
+        <v>1300</v>
+      </c>
+      <c r="G198">
+        <f>F198-C198/2</f>
+        <v>0</v>
+      </c>
+      <c r="I198" s="1">
+        <f>J198/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="J198">
+        <v>2600</v>
+      </c>
+      <c r="K198">
+        <f>J198-C198</f>
+        <v>0</v>
+      </c>
+      <c r="M198" s="1">
+        <f>N198/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="N198">
+        <v>2600</v>
+      </c>
+      <c r="O198" s="1">
+        <f>P198/B$100</f>
+        <v>0.18386252740258821</v>
+      </c>
+      <c r="P198" s="4">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1">
+        <f>C199/B$100</f>
+        <v>8.8395445866628952E-2</v>
+      </c>
+      <c r="C199" s="5">
+        <v>1250</v>
+      </c>
+      <c r="E199" s="1">
+        <f t="shared" ref="E199:E207" si="64">F199/B$100</f>
+        <v>0</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199">
+        <f t="shared" ref="G199:G208" si="65">F199-C199/2</f>
+        <v>-625</v>
+      </c>
+      <c r="I199" s="1">
+        <f>J199/B$100</f>
+        <v>9.3701294109327482E-2</v>
+      </c>
+      <c r="J199" s="4">
+        <v>1325.03</v>
+      </c>
+      <c r="K199">
+        <f>J199-C199</f>
+        <v>75.029999999999973</v>
+      </c>
+      <c r="M199" s="1">
+        <f t="shared" ref="M199:M207" si="66">N199/B$100</f>
+        <v>9.3701294109327482E-2</v>
+      </c>
+      <c r="N199" s="4">
+        <v>1325.03</v>
+      </c>
+      <c r="O199" s="1">
+        <f t="shared" ref="O199:O207" si="67">P199/B$100</f>
+        <v>8.8395445866628952E-2</v>
+      </c>
+      <c r="P199" s="5">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200" s="1">
+        <f t="shared" ref="B200:B207" si="68">C200/B$100</f>
+        <v>4.9501449685312213E-2</v>
+      </c>
+      <c r="C200" s="5">
+        <v>700</v>
+      </c>
+      <c r="E200" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200">
+        <f t="shared" si="65"/>
+        <v>-350</v>
+      </c>
+      <c r="I200" s="1">
+        <f>J200/B$100</f>
+        <v>4.900643518845909E-2</v>
+      </c>
+      <c r="J200" s="4">
+        <v>693</v>
+      </c>
+      <c r="K200">
+        <f>J200-C200</f>
+        <v>-7</v>
+      </c>
+      <c r="M200" s="1">
+        <f t="shared" si="66"/>
+        <v>4.900643518845909E-2</v>
+      </c>
+      <c r="N200" s="4">
+        <v>693</v>
+      </c>
+      <c r="O200" s="1">
+        <f t="shared" si="67"/>
+        <v>4.9501449685312213E-2</v>
+      </c>
+      <c r="P200" s="5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" s="1">
+        <f t="shared" si="68"/>
+        <v>7.0716356693303159E-2</v>
+      </c>
+      <c r="C201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E201" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="65"/>
+        <v>-500</v>
+      </c>
+      <c r="I201" s="1">
+        <f t="shared" ref="I201:I207" si="69">J201/B$100</f>
+        <v>0.28007213068382719</v>
+      </c>
+      <c r="J201" s="2">
+        <v>3960.5</v>
+      </c>
+      <c r="K201">
+        <f t="shared" ref="K201:K208" si="70">J201-C201</f>
+        <v>2960.5</v>
+      </c>
+      <c r="M201" s="1">
+        <f t="shared" si="66"/>
+        <v>0.28007213068382719</v>
+      </c>
+      <c r="N201" s="2">
+        <v>3960.5</v>
+      </c>
+      <c r="O201" s="1">
+        <f t="shared" si="67"/>
+        <v>7.0716356693303159E-2</v>
+      </c>
+      <c r="P201" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="J202" s="4"/>
+      <c r="K202">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M202" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="N202" s="4"/>
+      <c r="O202" s="1">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="1">
+        <f t="shared" si="68"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="C203" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E203" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="65"/>
+        <v>-1500</v>
+      </c>
+      <c r="I203" s="1">
+        <f t="shared" si="69"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="J203" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M203" s="1">
+        <f t="shared" si="66"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="N203" s="4">
+        <v>3000</v>
+      </c>
+      <c r="O203" s="1">
+        <f t="shared" si="67"/>
+        <v>0.21214907007990949</v>
+      </c>
+      <c r="P203" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="1">
+        <f t="shared" si="68"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="C204" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E204" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="65"/>
+        <v>-2000</v>
+      </c>
+      <c r="I204" s="1">
+        <f t="shared" si="69"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="J204" s="4">
+        <v>4000</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M204" s="1">
+        <f t="shared" si="66"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="N204" s="4">
+        <v>4000</v>
+      </c>
+      <c r="O204" s="1">
+        <f t="shared" si="67"/>
+        <v>0.28286542677321264</v>
+      </c>
+      <c r="P204" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="1">
+        <f t="shared" si="68"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="C205" s="5">
+        <v>800</v>
+      </c>
+      <c r="E205" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205">
+        <f t="shared" si="65"/>
+        <v>-400</v>
+      </c>
+      <c r="I205" s="1">
+        <f t="shared" si="69"/>
+        <v>6.2691464535747116E-2</v>
+      </c>
+      <c r="J205" s="4">
+        <v>886.52</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="70"/>
+        <v>86.519999999999982</v>
+      </c>
+      <c r="M205" s="1">
+        <f t="shared" si="66"/>
+        <v>6.2691464535747116E-2</v>
+      </c>
+      <c r="N205" s="4">
+        <v>886.52</v>
+      </c>
+      <c r="O205" s="1">
+        <f t="shared" si="67"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="P205" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16">
+      <c r="A206" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206" s="1">
+        <f t="shared" si="68"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="C206" s="5">
+        <v>800</v>
+      </c>
+      <c r="E206" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="65"/>
+        <v>-400</v>
+      </c>
+      <c r="I206" s="1">
+        <f t="shared" si="69"/>
+        <v>1.7972562053602998E-2</v>
+      </c>
+      <c r="J206" s="4">
+        <v>254.15</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="70"/>
+        <v>-545.85</v>
+      </c>
+      <c r="M206" s="1">
+        <f t="shared" si="66"/>
+        <v>1.7972562053602998E-2</v>
+      </c>
+      <c r="N206" s="4">
+        <v>254.15</v>
+      </c>
+      <c r="O206" s="1">
+        <f t="shared" si="67"/>
+        <v>5.6573085354642526E-2</v>
+      </c>
+      <c r="P206" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="J207" s="4"/>
+      <c r="K207">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M207" s="1">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="N207" s="4"/>
+      <c r="O207" s="1">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P207" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1">
+        <f>SUM(B198:B207)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="C208">
+        <f>SUM(C198:C207)</f>
+        <v>14150</v>
+      </c>
+      <c r="E208" s="1">
+        <f>SUM(E198:E207)</f>
+        <v>9.1931263701294105E-2</v>
+      </c>
+      <c r="F208">
+        <f>SUM(F198:F207)</f>
+        <v>1300</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="65"/>
+        <v>-5775</v>
+      </c>
+      <c r="I208" s="1">
+        <f>SUM(I198:I207)</f>
+        <v>1.1823209108266741</v>
+      </c>
+      <c r="J208">
+        <f>SUM(J198:J207)</f>
+        <v>16719.2</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="70"/>
+        <v>2569.2000000000007</v>
+      </c>
+      <c r="M208" s="1">
+        <f>SUM(M198:M207)</f>
+        <v>1.1823209108266741</v>
+      </c>
+      <c r="N208">
+        <f>SUM(N198:N207)</f>
+        <v>16719.2</v>
+      </c>
+      <c r="O208" s="1">
+        <f>SUM(O198:O207)</f>
+        <v>1.0006364472102398</v>
+      </c>
+      <c r="P208" s="5">
+        <f>SUM(P198:P207)</f>
+        <v>14150</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16">
+      <c r="A211" s="9">
+        <v>202004</v>
+      </c>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
+      <c r="M211" s="9"/>
+      <c r="N211" s="9"/>
+      <c r="O211" s="9"/>
+      <c r="P211" s="9"/>
+    </row>
+    <row r="212" spans="1:16">
+      <c r="A212" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B212" s="9">
+        <v>19000</v>
+      </c>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="9"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="9"/>
+      <c r="L212" s="9"/>
+      <c r="M212" s="9"/>
+      <c r="N212" s="9"/>
+      <c r="O212" s="9"/>
+      <c r="P212" s="9"/>
+    </row>
+    <row r="213" spans="1:16">
+      <c r="A213" s="9"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="9"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="9"/>
+      <c r="L213" s="9"/>
+      <c r="M213" s="9"/>
+      <c r="N213" s="9"/>
+      <c r="O213" s="9"/>
+      <c r="P213" s="9"/>
+    </row>
+    <row r="214" spans="1:16">
+      <c r="A214" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B214" s="9">
+        <v>14677.98</v>
+      </c>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="9"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="9"/>
+      <c r="L214" s="9"/>
+      <c r="M214" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N214" s="9"/>
+      <c r="O214" s="9"/>
+      <c r="P214" s="9"/>
+    </row>
+    <row r="215" spans="1:16">
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="9"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="9"/>
+      <c r="L215" s="9"/>
+      <c r="M215" s="9"/>
+      <c r="N215" s="9"/>
+      <c r="O215" s="9"/>
+      <c r="P215" s="9"/>
+    </row>
+    <row r="216" spans="1:16">
+      <c r="A216" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K216" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L216" s="9"/>
+      <c r="M216" s="9"/>
+      <c r="N216" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O216" s="9"/>
+      <c r="P216" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
+      <c r="A217" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B217" s="10">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="C217" s="9">
+        <v>2600</v>
+      </c>
+      <c r="D217" s="9"/>
+      <c r="E217" s="10">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="F217" s="9">
+        <v>1300</v>
+      </c>
+      <c r="G217" s="9">
+        <v>0</v>
+      </c>
+      <c r="H217" s="9"/>
+      <c r="I217" s="10">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="J217" s="9">
+        <v>2600</v>
+      </c>
+      <c r="K217" s="9">
+        <v>0</v>
+      </c>
+      <c r="L217" s="9"/>
+      <c r="M217" s="10">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="N217" s="9">
+        <v>2600</v>
+      </c>
+      <c r="O217" s="10">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="P217" s="9">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
+      <c r="A218" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B218" s="10">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="C218" s="9">
+        <v>1250</v>
+      </c>
+      <c r="D218" s="9"/>
+      <c r="E218" s="10">
+        <v>0</v>
+      </c>
+      <c r="F218" s="11"/>
+      <c r="G218" s="9">
+        <v>-625</v>
+      </c>
+      <c r="H218" s="9"/>
+      <c r="I218" s="10">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9">
+        <v>-24.81</v>
+      </c>
+      <c r="L218" s="9"/>
+      <c r="M218" s="10">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="N218" s="9"/>
+      <c r="O218" s="10">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="P218" s="9">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
+      <c r="A219" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B219" s="10">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="C219" s="9">
+        <v>700</v>
+      </c>
+      <c r="D219" s="9"/>
+      <c r="E219" s="10">
+        <v>0</v>
+      </c>
+      <c r="F219" s="11"/>
+      <c r="G219" s="9">
+        <v>-350</v>
+      </c>
+      <c r="H219" s="9"/>
+      <c r="I219" s="10">
+        <v>0</v>
+      </c>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9">
+        <v>-700</v>
+      </c>
+      <c r="L219" s="9"/>
+      <c r="M219" s="10">
+        <v>0</v>
+      </c>
+      <c r="N219" s="9"/>
+      <c r="O219" s="10">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="P219" s="9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
+      <c r="A220" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B220" s="10">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="C220" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D220" s="9"/>
+      <c r="E220" s="10">
+        <v>0</v>
+      </c>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9">
+        <v>-500</v>
+      </c>
+      <c r="H220" s="9"/>
+      <c r="I220" s="10">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="J220" s="9"/>
+      <c r="K220" s="9">
+        <v>-821</v>
+      </c>
+      <c r="L220" s="9"/>
+      <c r="M220" s="10">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="N220" s="9"/>
+      <c r="O220" s="10">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="P220" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
+      <c r="A221" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B221" s="10">
+        <v>0</v>
+      </c>
+      <c r="C221" s="9">
+        <v>0</v>
+      </c>
+      <c r="D221" s="9"/>
+      <c r="E221" s="10">
+        <v>0</v>
+      </c>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9">
+        <v>0</v>
+      </c>
+      <c r="H221" s="9"/>
+      <c r="I221" s="10">
+        <v>0</v>
+      </c>
+      <c r="J221" s="9"/>
+      <c r="K221" s="9">
+        <v>0</v>
+      </c>
+      <c r="L221" s="9"/>
+      <c r="M221" s="10">
+        <v>0</v>
+      </c>
+      <c r="N221" s="9"/>
+      <c r="O221" s="10">
+        <v>0</v>
+      </c>
+      <c r="P221" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
+      <c r="A222" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B222" s="10">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="C222" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D222" s="9"/>
+      <c r="E222" s="10">
+        <v>0</v>
+      </c>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9">
+        <v>-1500</v>
+      </c>
+      <c r="H222" s="9"/>
+      <c r="I222" s="10">
+        <v>0</v>
+      </c>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9">
+        <v>-3000</v>
+      </c>
+      <c r="L222" s="9"/>
+      <c r="M222" s="10">
+        <v>0</v>
+      </c>
+      <c r="N222" s="9"/>
+      <c r="O222" s="10">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="P222" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16">
+      <c r="A223" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B223" s="10">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="C223" s="9">
+        <v>4000</v>
+      </c>
+      <c r="D223" s="9"/>
+      <c r="E223" s="10">
+        <v>0</v>
+      </c>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9">
+        <v>-2000</v>
+      </c>
+      <c r="H223" s="9"/>
+      <c r="I223" s="10">
+        <v>0</v>
+      </c>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9">
+        <v>-4000</v>
+      </c>
+      <c r="L223" s="9"/>
+      <c r="M223" s="10">
+        <v>0</v>
+      </c>
+      <c r="N223" s="9"/>
+      <c r="O223" s="10">
+        <v>0.28289999999999998</v>
+      </c>
+      <c r="P223" s="9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16">
+      <c r="A224" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B224" s="10">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="C224" s="9">
+        <v>800</v>
+      </c>
+      <c r="D224" s="9"/>
+      <c r="E224" s="10">
+        <v>0</v>
+      </c>
+      <c r="F224" s="11"/>
+      <c r="G224" s="9">
+        <v>-400</v>
+      </c>
+      <c r="H224" s="9"/>
+      <c r="I224" s="10">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9">
+        <v>-730.39</v>
+      </c>
+      <c r="L224" s="9"/>
+      <c r="M224" s="10">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="N224" s="9"/>
+      <c r="O224" s="10">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="P224" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16">
+      <c r="A225" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B225" s="10">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="C225" s="9">
+        <v>800</v>
+      </c>
+      <c r="D225" s="9"/>
+      <c r="E225" s="10">
+        <v>0</v>
+      </c>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9">
+        <v>-400</v>
+      </c>
+      <c r="H225" s="9"/>
+      <c r="I225" s="10">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="J225" s="9"/>
+      <c r="K225" s="9">
+        <v>-73.400000000000006</v>
+      </c>
+      <c r="L225" s="9"/>
+      <c r="M225" s="10">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="N225" s="9"/>
+      <c r="O225" s="10">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="P225" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16">
+      <c r="A226" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B226" s="10">
+        <v>0</v>
+      </c>
+      <c r="C226" s="9">
+        <v>0</v>
+      </c>
+      <c r="D226" s="9"/>
+      <c r="E226" s="10">
+        <v>0</v>
+      </c>
+      <c r="F226" s="11"/>
+      <c r="G226" s="9">
+        <v>0</v>
+      </c>
+      <c r="H226" s="9"/>
+      <c r="I226" s="10">
+        <v>0</v>
+      </c>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9">
+        <v>0</v>
+      </c>
+      <c r="L226" s="9"/>
+      <c r="M226" s="10">
+        <v>0</v>
+      </c>
+      <c r="N226" s="9"/>
+      <c r="O226" s="10">
+        <v>0</v>
+      </c>
+      <c r="P226" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10">
+        <v>1.0005999999999999</v>
+      </c>
+      <c r="C227" s="9">
+        <v>14150</v>
+      </c>
+      <c r="D227" s="9"/>
+      <c r="E227" s="10">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="F227" s="9">
+        <v>1300</v>
+      </c>
+      <c r="G227" s="9">
+        <v>-5775</v>
+      </c>
+      <c r="H227" s="9"/>
+      <c r="I227" s="10">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="J227" s="9">
+        <v>4800.3999999999996</v>
+      </c>
+      <c r="K227" s="9">
+        <v>-9349.6</v>
+      </c>
+      <c r="L227" s="9"/>
+      <c r="M227" s="10">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="N227" s="9">
+        <v>4800.3999999999996</v>
+      </c>
+      <c r="O227" s="10">
+        <v>1.0005999999999999</v>
+      </c>
+      <c r="P227" s="9">
         <v>14150</v>
       </c>
     </row>
@@ -6052,7 +7312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86B4AA1-47B3-E64C-8585-68C7BEF32899}">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
